--- a/question & anwers_2024b.xlsx
+++ b/question & anwers_2024b.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70K6885\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A972E50-79AA-438D-8B61-6447D8DC669A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Minh" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -922,11 +921,6 @@
     <t>Improve after trainning ?</t>
   </si>
   <si>
-    <t>I can program on mobile
-Effective team work management
-Communication skills and negotiation skills with departments</t>
-  </si>
-  <si>
     <t>Vai trò ? Trong du án là gì</t>
   </si>
   <si>
@@ -936,18 +930,70 @@
 the last : development and upgrade on new device.</t>
   </si>
   <si>
-    <t>reduce function -&gt; worst why is good?</t>
-  </si>
-  <si>
-    <t>+ Similar functions are combined into one screen. more convenient in operation.
-'+ Think about it, the same kitting operation for many different categories, each categogy on one screen, will take a lot of operations. Meanwhile we can combine them into one screen by tool filter by cate.
-'+ later ,when modify the program, take only little time to update system.</t>
+    <r>
+      <t xml:space="preserve">+ Business process analysis and Optimize
+'+ Development software
+'+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Support project manager.</t>
+    </r>
+  </si>
+  <si>
+    <t>+ I was in charge of choosing the new language and operating system.
+'1. find , reseach quickly new language.
+2. compare with other language to find the advantage.
+3. propose and decide that language</t>
+  </si>
+  <si>
+    <t>reduce function -&gt; worst why is good?
+65 -&gt; 32</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ After analysis and discussion team. We recognize a lot of similar functions. We decided to combine and optimize them together. and still </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep high efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. result reduce to 65 -&gt; 32. 
+'+ After upgrade, modify function, maintain, support , and upgrading the system will be shortened.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">I can program on mobile
+Effective team work management
+Communication skills and negotiation skills </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1082,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,6 +1203,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,11 +1489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,35 +1990,39 @@
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="28" t="s">
         <v>83</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E37" s="24"/>
     </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.22" bottom="0.75" header="0.3" footer="0.3"/>

--- a/question & anwers_2024b.xlsx
+++ b/question & anwers_2024b.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7466A8-9EAF-46B6-AE3B-74DF48C807F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minh" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -103,9 +104,6 @@
     <t>why do you select android?</t>
   </si>
   <si>
-    <t>what is the most difficult in this project?</t>
-  </si>
-  <si>
     <t>support training and planning . Look for improvement and the best solutions  and development. 
 + learning &amp; sharing experience in my team about technical &amp; support user.</t>
   </si>
@@ -230,54 +228,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>written on Android</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ Programming in new languages and new environments.
-'+ It </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>takes a lot of time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to learn them from different sources. on social networks. on the internet, and forums. Try to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>learn and master</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> them.</t>
     </r>
   </si>
   <si>
@@ -727,9 +677,6 @@
 '+ Safety - Compiance - Quality</t>
   </si>
   <si>
-    <t>There are a lot of software  need support during operation. human error, machine error, or system error. Example:  log file NG, barcode supply NG, machine broke set up again, user mistake, repair and set up OS on handy terminal when error….</t>
-  </si>
-  <si>
     <t>Why are so many requests but little request is selected?</t>
   </si>
   <si>
@@ -743,12 +690,6 @@
   </si>
   <si>
     <t xml:space="preserve"> redundant operations that take a loss of time. Improvements related to operations, find material, find warehouse location, displaying shipment status -&gt; save time to find material, check inventory, warnings GR or kitting first in, first out…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before: 3minute/60*20*totoal inventory .After: 1minute/60*20*totoal inventory </t>
-  </si>
-  <si>
-    <t>Theme 2 : Save time inventory : 80% ?</t>
   </si>
   <si>
     <t>finished upgrade foss in Frebruary, (action plan -&gt; to march FY2023)</t>
@@ -762,9 +703,6 @@
   <si>
     <t>+ Devices mobile do not  install software. Catches signal very well. Running software on mobile is stable without crashing. Not repare and set up again OS.
 '+ software is faster, stable and optimizer</t>
-  </si>
-  <si>
-    <t>whar is normal support time ?</t>
   </si>
   <si>
     <t>The FOSS system is very large. So are you only do it?</t>
@@ -876,12 +814,6 @@
 Additional my suggestion: during analyze to optimize FOSS android version, you also met some difficulty.</t>
   </si>
   <si>
-    <t>My suggestion:
- I improved
-Major skill : Develop Mobile app (new) 
-and Soft skill: Teamwork, model and standardize process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supervisor has subordinates =&gt; improve subordinates skills </t>
   </si>
   <si>
@@ -893,46 +825,741 @@
     <t>Should link to question 1 above</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Because</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Develop Man-power resource is limited; may be more question come:
+    <t>Improve after trainning ?</t>
+  </si>
+  <si>
+    <t>reduce function -&gt; worst why is good?
+65 -&gt; 32</t>
+  </si>
+  <si>
+    <t>what is the most difficult in this project?
+(them 1)</t>
+  </si>
+  <si>
+    <t>what is the most difficult in this project? 
+(theme2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Survey, discuss with IT members, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clarify all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processes, take the best solutions to standardize processes.
+'+ Hold a meeting, explain to them the benefits of using the software: Easy to manage, visualize data, automate reports, no confusion. contact their manager and and talk about the benefits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Business process analysis and Optimize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+'+ Development software
+'+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Support project manager.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am in charge of choosing the new language and operating system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+'1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find , reseach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quickly new language.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compare with other language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to find the advantage.
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>propose and decide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that language</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My suggestion:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I improved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Major skill : Develop Mobile app (new) 
+and Soft skill: Teamwork , model and standardize process</t>
+    </r>
+  </si>
+  <si>
+    <t>Role ? In this project</t>
+  </si>
+  <si>
+    <t>what is normal support time ?</t>
+  </si>
+  <si>
+    <t>Theme 2 : Save time inventory 57 -&gt; 19 hour?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Do not use soft : It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>takes 3 minutes to inventory 1 device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Total check inventory time per month</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is 57.1 h
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">' +after use soft: It takes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 minutes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">to inventory 1 device. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total check inventory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> time per month is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19 h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I improved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Major skill : Develop Mobile app (new) 
+and Soft skill: Teamwork , model and standardize process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can program on mobile
+Effective team work management
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Communication skills and negotiation skills </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the same functions are combined into one screen for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">convenient </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operation.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">how to caculator normal support 45%? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>calculate the average support time of 1 member  in 1 day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.82 hours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ~ 45%.
+'-&gt;After</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> combine and optimize function, we can support more quickly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( reduce 0.85h/day ~ 10%)
+and we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transfer 0.85h time saving</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to develop more systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>+ After</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> analysis and discussion our</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> team and member department. We found (recognize) a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(many many...)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>similar functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. We decided to combine and optimize them together. and still </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep high efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result reduce to 65 -&gt; 32.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+'+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> After upgrade, when modify function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, maintain, support , and upgrade the system will be shortened  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take litte times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are a lot of software  need support during operation. human error, machine error, or system error. Example:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log file NG, barcode supply NG, machine broke set up again, user mistake, repair and set up OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on handy terminal when error….</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Because Develop Man-power resource is limited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; may be more question come:
 What's ISD policy or priority to select develop request?   
 =&gt; Project priority: 1. Compliance issue 2. big impact to biz or HC reduce 3. Save time and Quality issue</t>
     </r>
   </si>
   <si>
-    <t>Improve after trainning ?</t>
-  </si>
-  <si>
-    <t>Vai trò ? Trong du án là gì</t>
-  </si>
-  <si>
-    <t>Because this project is big. I and my team discussed together select a new OS, a new language, and a new device to make new software.
-next step : we analysis and optimization FOSS system.
-after that : Discuss and negotiate with pic department on new system.
-the last : development and upgrade on new device.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ Business process analysis and Optimize
-'+ Development software
+    <t>van de cua bo phan it ? Tinh hinh hien tai? Tuong lai muon phat trien the nao?</t>
+  </si>
+  <si>
+    <t>what is your idea in project?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alot of manaual job </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to asset manage. 
+The IT department </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">only makes software for other departments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not make software for my department.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For that reason, I had an idea to build software for my IT department </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for a long time ago</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, select new languages and new environments.
 '+ </t>
     </r>
     <r>
@@ -944,57 +1571,327 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Support project manager.</t>
-    </r>
-  </si>
-  <si>
-    <t>+ I was in charge of choosing the new language and operating system.
-'1. find , reseach quickly new language.
-2. compare with other language to find the advantage.
-3. propose and decide that language</t>
-  </si>
-  <si>
-    <t>reduce function -&gt; worst why is good?
-65 -&gt; 32</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+ After analysis and discussion team. We recognize a lot of similar functions. We decided to combine and optimize them together. and still </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keep high efficiency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. result reduce to 65 -&gt; 32. 
-'+ After upgrade, modify function, maintain, support , and upgrading the system will be shortened.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">I can program on mobile
-Effective team work management
-Communication skills and negotiation skills </t>
+      <t>Second</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Foss is big system, during analyze and optimize to android version we also met some diffculty.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At fist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, There is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a lot of manual job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leading to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> unclear processes .
+'+ Second,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Members IT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alway work on papers and excel files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and they </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">do not want </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to use software.</t>
+    </r>
+  </si>
+  <si>
+    <t>what is the most efficiency?</t>
+  </si>
+  <si>
+    <t>IT: reduces support time, easy modify program and maintenance. 
+With department: convenient in operation of user</t>
+  </si>
+  <si>
+    <t>Support training internal
+Improve and standardize other factory processes</t>
+  </si>
+  <si>
+    <t>tinh hinh cong ty?</t>
+  </si>
+  <si>
+    <t>Why are you selected for promotion?  
+tai sao ban duoc len chuc?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">my boss select me because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my effort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contribution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Many types of products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>many processes need to be improved to reduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people, ensure quality, save costs and time.
+'+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As position of IT, I will standardize the entire process and provide the best solutions to reduce people, save costs and ensure quality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dong gop cho cong ty? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (contribute)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Training to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>improve develop skill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for new members.
+Sharing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normal support technical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with each others.</t>
+    </r>
+  </si>
+  <si>
+    <t>Man-power not stable. New member is not experience.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,6 +1966,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1128,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,16 +2088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,9 +2096,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1207,8 +2114,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,11 +2411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,8 +2423,8 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="78.5703125" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1531,10 +2453,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1546,121 +2468,119 @@
         <v>23</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
+      <c r="B7" s="24"/>
+      <c r="C7" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="16" t="s">
-        <v>50</v>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -1669,360 +2589,487 @@
         <v>11</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="59.25" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>52</v>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="C22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+    <row r="28" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="5" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>33</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>34</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>35</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>85</v>
-      </c>
+    </row>
+    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.22" bottom="0.75" header="0.3" footer="0.3"/>

--- a/question & anwers_2024b.xlsx
+++ b/question & anwers_2024b.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7466A8-9EAF-46B6-AE3B-74DF48C807F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Minh" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1703,10 +1702,6 @@
 With department: convenient in operation of user</t>
   </si>
   <si>
-    <t>Support training internal
-Improve and standardize other factory processes</t>
-  </si>
-  <si>
     <t>tinh hinh cong ty?</t>
   </si>
   <si>
@@ -1885,12 +1880,15 @@
   </si>
   <si>
     <t>Man-power not stable. New member is not experience.</t>
+  </si>
+  <si>
+    <t>Improve and standardize other factory processes. To make software to save cost, save time, reduce HC, ensure quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2411,11 +2409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,7 +2457,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3016,10 +3014,10 @@
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E44" s="20"/>
     </row>
@@ -3029,10 +3027,10 @@
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="20"/>
     </row>
@@ -3045,10 +3043,10 @@
         <v>95</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3057,10 +3055,10 @@
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="E47" s="20"/>
     </row>

--- a/question & anwers_2024b.xlsx
+++ b/question & anwers_2024b.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\report\ReportPSNV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Report2\ReportPSNV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E34A7-775B-4CBD-9159-288516264D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minh" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>No</t>
   </si>
@@ -1884,11 +1886,84 @@
   <si>
     <t>Improve and standardize other factory processes. To make software to save cost, save time, reduce HC, ensure quantity</t>
   </si>
+  <si>
+    <t>( trang background)</t>
+  </si>
+  <si>
+    <t>This idea is who's idea? Your orignal idea?</t>
+  </si>
+  <si>
+    <t>What is difficult to do this action? How did you success this action?</t>
+  </si>
+  <si>
+    <t>What is the biggest challenge in this action? Please tell me your original idea?</t>
+  </si>
+  <si>
+    <t>What is the most successful in this report? And what do you think in the secret to that success to that success?</t>
+  </si>
+  <si>
+    <t>What kind of subordinate do you want to develop</t>
+  </si>
+  <si>
+    <t>Please tell us what you were able to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How will you provide the benefit to the company in the future? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of leader is your goal? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yamashita:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Why do you think need to improve fixed cost?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nagai question: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please tell us about the challenges you faced?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2409,10 +2484,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -3073,4 +3148,73 @@
   <pageMargins left="0.7" right="0.7" top="0.22" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CFFDC5-2D6F-4031-845C-FD72C3CBC7D0}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" activeCellId="1" sqref="J23 V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>